--- a/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint 3/Burndown Chart.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint 3/Burndown Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Record Video</t>
+  </si>
+  <si>
+    <t>Create Second Mergedoc</t>
+  </si>
+  <si>
+    <t>Create final report</t>
   </si>
   <si>
     <t>Idealized Burn</t>
@@ -266,9 +272,7 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,7 +368,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$B$29</c:f>
+              <c:f>Folha1!$B$34</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -379,7 +383,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$29:$J$29</c:f>
+              <c:f>Folha1!$C$34:$J$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -390,7 +394,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$B$30</c:f>
+              <c:f>Folha1!$B$35</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -405,17 +409,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$30:$J$30</c:f>
+              <c:f>Folha1!$C$35:$J$35</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="651563858"/>
-        <c:axId val="1383752295"/>
+        <c:axId val="1773611327"/>
+        <c:axId val="332435450"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="651563858"/>
+        <c:axId val="1773611327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,10 +471,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1383752295"/>
+        <c:crossAx val="332435450"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1383752295"/>
+        <c:axId val="332435450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651563858"/>
+        <c:crossAx val="1773611327"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -575,9 +579,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4810125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6972300" cy="4391025"/>
@@ -602,7 +606,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C29:J30" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C34:J35" displayName="Table_1" id="1">
   <tableColumns count="8">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1478,92 +1482,52 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="18">
+        <v>27.0</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="23">
-        <f>SUM(C2:C27)</f>
-        <v>63</v>
-      </c>
-      <c r="D29" s="23">
-        <f t="shared" ref="D29:J29" si="1">ROUNDDOWN(C29 - $C$29/7)</f>
-        <v>54</v>
-      </c>
-      <c r="E29" s="23">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G29" s="23">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="H29" s="23">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I29" s="23">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="18">
+        <v>28.0</v>
+      </c>
+      <c r="C29" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="22"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="23">
-        <f>SUM(C2:C27)</f>
-        <v>63</v>
-      </c>
-      <c r="D30" s="23">
-        <f t="shared" ref="D30:J30" si="2">C30 - SUM(D2:D27)</f>
-        <v>63</v>
-      </c>
-      <c r="E30" s="23">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="H30" s="23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I30" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1580,8 +1544,80 @@
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="23">
+        <f>SUM(C2:C29)</f>
+        <v>69</v>
+      </c>
+      <c r="D34" s="23">
+        <f t="shared" ref="D34:J34" si="1">ROUNDDOWN(C34 - $C$34/7)</f>
+        <v>59</v>
+      </c>
+      <c r="E34" s="23">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G34" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I34" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J34" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="23">
+        <f>SUM(C2:C29)</f>
+        <v>69</v>
+      </c>
+      <c r="D35" s="23">
+        <f t="shared" ref="D35:J35" si="2">C35 - SUM(D2:D27)</f>
+        <v>69</v>
+      </c>
+      <c r="E35" s="23">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
